--- a/data_backup/dataset1_old_379/dingkang_ret_old_dataset1.xlsx
+++ b/data_backup/dataset1_old_379/dingkang_ret_old_dataset1.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C13"/>
+      <selection activeCell="B9" sqref="B9:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -675,6 +675,9 @@
       <c r="A9">
         <v>1</v>
       </c>
+      <c r="B9">
+        <v>167</v>
+      </c>
       <c r="C9">
         <v>203</v>
       </c>
@@ -683,6 +686,9 @@
       <c r="A10">
         <v>2</v>
       </c>
+      <c r="B10">
+        <v>193</v>
+      </c>
       <c r="C10">
         <v>238</v>
       </c>
@@ -691,6 +697,9 @@
       <c r="A11">
         <v>3</v>
       </c>
+      <c r="B11">
+        <v>206</v>
+      </c>
       <c r="C11">
         <v>258</v>
       </c>
@@ -699,6 +708,9 @@
       <c r="A12">
         <v>4</v>
       </c>
+      <c r="B12">
+        <v>220</v>
+      </c>
       <c r="C12">
         <v>270</v>
       </c>
@@ -706,6 +718,9 @@
     <row r="13" spans="1:4">
       <c r="A13">
         <v>5</v>
+      </c>
+      <c r="B13">
+        <v>232</v>
       </c>
       <c r="C13">
         <v>273</v>
